--- a/history_output.xlsx
+++ b/history_output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,6 +736,125 @@
         <v>23452354</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>915441210</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E18" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>915441210</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12332</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>915441210</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E20" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>915441210</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E21" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>915441210</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E22" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>915441210</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>915441210</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/history_output.xlsx
+++ b/history_output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +855,108 @@
         <v>3123</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>482982360</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>482982360</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6186488969</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6186488969</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6186488969</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" t="n">
+        <v>915441210</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="E30" t="n">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
